--- a/new-invoice-frontend/main/src/assets/files/importvendortype.xlsx
+++ b/new-invoice-frontend/main/src/assets/files/importvendortype.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\rovuk-invoice\new-invoice-frontend\main\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -525,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -541,16 +541,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1"/>
+    </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
